--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 3.xlsx_with_dialog_acts.xlsx
@@ -847,12 +847,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1037,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1151,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
